--- a/Sample Solutions(60).xlsx
+++ b/Sample Solutions(60).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>Student Number</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Cairan Power</t>
   </si>
   <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
     <t>Corrie O'Reilly</t>
   </si>
   <si>
@@ -68,319 +71,319 @@
     <t>offering advice</t>
   </si>
   <si>
+    <t>Daryl O'Donnell</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Kieran Brown</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>Jacob Reid</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Jessie Lyons</t>
+  </si>
+  <si>
+    <t>chain-smoking Gauloises Bleues</t>
+  </si>
+  <si>
+    <t>Eoghan Donnelly</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Emmanuel Brennan</t>
+  </si>
+  <si>
+    <t>doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Cailim Lyons</t>
+  </si>
+  <si>
+    <t>punishing terrorists</t>
+  </si>
+  <si>
+    <t>Kristian MacKenna</t>
+  </si>
+  <si>
+    <t>Abstract views on building rocket ships</t>
+  </si>
+  <si>
+    <t>Micheal Magee</t>
+  </si>
+  <si>
+    <t>tracking down terrorists</t>
+  </si>
+  <si>
+    <t>Harold Magee</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>Garreth Keane</t>
+  </si>
+  <si>
+    <t>writing political tracts</t>
+  </si>
+  <si>
+    <t>James Scott</t>
+  </si>
+  <si>
+    <t>Abstract views on talking in riddles</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Daryl O'Donnell</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Kieran Brown</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>Jacob Reid</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Jessie Lyons</t>
+    <t>Clayton Kelly</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Dara Flanagan</t>
+  </si>
+  <si>
+    <t>Abstract views on flying airplanes</t>
+  </si>
+  <si>
+    <t>George Moore</t>
+  </si>
+  <si>
+    <t>promoting liberalism</t>
+  </si>
+  <si>
+    <t>Conrad O'Keeffe</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Eugene Brennan</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>Dane Johnston</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>Jonathon Hogan</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Charlie Johnston</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Maurice Campbell</t>
+  </si>
+  <si>
+    <t>Abstract views on writing pop songs</t>
+  </si>
+  <si>
+    <t>Padraic McLoughlin</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Shay O'Neill</t>
+  </si>
+  <si>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>Kyle O'Donnell</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Fergal Flynn</t>
+  </si>
+  <si>
+    <t>Abstract views on playing ice hockey</t>
+  </si>
+  <si>
+    <t>Graeme Foley</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>Omar Hayes</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>Emanuel Foley</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Fionnan Griffin</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>Mitchell Hogan</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>Cairan Scott</t>
+  </si>
+  <si>
+    <t>writing polemics</t>
+  </si>
+  <si>
+    <t>Derry Scott</t>
+  </si>
+  <si>
+    <t>chasing terrorists</t>
+  </si>
+  <si>
+    <t>Reece Hogan</t>
+  </si>
+  <si>
+    <t>Abstract views on squandering money</t>
+  </si>
+  <si>
+    <t>Billy Barry</t>
+  </si>
+  <si>
+    <t>Abstract views on ruling over subjects</t>
+  </si>
+  <si>
+    <t>Eamonn Clarke</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>Colum Molony</t>
+  </si>
+  <si>
+    <t>Abstract views on playing basketball</t>
+  </si>
+  <si>
+    <t>Kilian Reid</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Liam Maguire</t>
+  </si>
+  <si>
+    <t>flying airplanes</t>
+  </si>
+  <si>
+    <t>Kristian Brown</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Griffin Moran</t>
+  </si>
+  <si>
+    <t>launching cultural revolutions</t>
+  </si>
+  <si>
+    <t>Colman White</t>
+  </si>
+  <si>
+    <t>Abstract views on playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Timmy Lyons</t>
+  </si>
+  <si>
+    <t>Abstract views on writing modern fiction</t>
+  </si>
+  <si>
+    <t>Darryl Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Self Specified Project</t>
+  </si>
+  <si>
+    <t>Stephen Kenny</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Cillin MacNamara</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>Reuben MacDonald</t>
   </si>
   <si>
     <t>starring in comedies</t>
   </si>
   <si>
-    <t>Eoghan Donnelly</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Emmanuel Brennan</t>
-  </si>
-  <si>
-    <t>doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Cailim Lyons</t>
-  </si>
-  <si>
-    <t>punishing terrorists</t>
-  </si>
-  <si>
-    <t>Kristian MacKenna</t>
+    <t>Fiachra O'Callaghan</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Tiarnan O'Keeffe</t>
+  </si>
+  <si>
+    <t>warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>Corrie MacMahon</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>Jim MacKenna</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Donnchadh Collins</t>
   </si>
   <si>
     <t>going on commando missions</t>
   </si>
   <si>
-    <t>Micheal Magee</t>
-  </si>
-  <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>Tiarnan O'Keeffe</t>
-  </si>
-  <si>
-    <t>Abstract views on singing opera arias</t>
-  </si>
-  <si>
-    <t>Harold Magee</t>
-  </si>
-  <si>
-    <t>writing political tracts</t>
-  </si>
-  <si>
-    <t>Colum Molony</t>
-  </si>
-  <si>
-    <t>Abstract views on playing basketball</t>
-  </si>
-  <si>
-    <t>Kristian Brown</t>
-  </si>
-  <si>
-    <t>Abstract views on playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Stephen Kenny</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Fiachra O'Callaghan</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>Jim MacKenna</t>
-  </si>
-  <si>
-    <t>Abstract views on ruling over subjects</t>
-  </si>
-  <si>
-    <t>Griffin Moran</t>
-  </si>
-  <si>
-    <t>promoting liberalism</t>
-  </si>
-  <si>
-    <t>Eugene Brennan</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Reuben MacDonald</t>
-  </si>
-  <si>
-    <t>Self Specified Project</t>
-  </si>
-  <si>
-    <t>Dane Johnston</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Corrie MacMahon</t>
-  </si>
-  <si>
-    <t>flaunting buttocks</t>
-  </si>
-  <si>
-    <t>Colman White</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Conrad O'Keeffe</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Maurice Campbell</t>
-  </si>
-  <si>
-    <t>Abstract views on writing pop songs</t>
-  </si>
-  <si>
-    <t>Kyle O'Donnell</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Shay O'Neill</t>
-  </si>
-  <si>
-    <t>transcending physical limits</t>
-  </si>
-  <si>
-    <t>Padraic McLoughlin</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Graeme Foley</t>
-  </si>
-  <si>
-    <t>enjoying money</t>
-  </si>
-  <si>
-    <t>Fergal Flynn</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Emanuel Foley</t>
-  </si>
-  <si>
-    <t>chain-smoking Gauloises Bleues</t>
-  </si>
-  <si>
-    <t>Omar Hayes</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Cillin MacNamara</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>Mitchell Hogan</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Cairan Scott</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>Kilian Reid</t>
-  </si>
-  <si>
-    <t>chasing terrorists</t>
-  </si>
-  <si>
-    <t>Billy Barry</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>Reece Hogan</t>
-  </si>
-  <si>
-    <t>eluding the CIA</t>
-  </si>
-  <si>
-    <t>Charlie Johnston</t>
-  </si>
-  <si>
-    <t>Abstract views on playing ice hockey</t>
-  </si>
-  <si>
-    <t>Jonathon Hogan</t>
-  </si>
-  <si>
-    <t>launching cultural revolutions</t>
-  </si>
-  <si>
-    <t>Derry Scott</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Eamonn Clarke</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
     <t>Lucas Gallagher</t>
   </si>
   <si>
-    <t>Abstract views on reporting the news</t>
-  </si>
-  <si>
-    <t>Darryl Fitzpatrick</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Fionnan Griffin</t>
-  </si>
-  <si>
-    <t>Abstract views on squandering money</t>
-  </si>
-  <si>
-    <t>Timmy Lyons</t>
-  </si>
-  <si>
-    <t>Abstract views on talking in riddles</t>
-  </si>
-  <si>
-    <t>Garreth Keane</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>James Scott</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>Dara Flanagan</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Clayton Kelly</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Liam Maguire</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>George Moore</t>
-  </si>
-  <si>
     <t>Abstract views on starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Donnchadh Collins</t>
-  </si>
-  <si>
-    <t>laughing maniacally</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>3.44</v>
+        <v>2.94</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>7</v>
@@ -473,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="n" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>3.92</v>
+        <v>2.96</v>
       </c>
       <c r="D3" t="s" s="1">
         <v>7</v>
@@ -493,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="n" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="D4" t="s" s="1">
         <v>11</v>
@@ -524,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>2.84</v>
+        <v>1.42</v>
       </c>
       <c r="D5" t="s" s="1">
         <v>11</v>
@@ -533,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="n" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -544,13 +547,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n" s="1">
         <v>4.0</v>
@@ -561,7 +564,7 @@
         <v>515674.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n" s="1">
         <v>2.82</v>
@@ -573,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="n" s="1">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -581,10 +584,10 @@
         <v>969918.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>11</v>
@@ -601,19 +604,19 @@
         <v>154232.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>3.08</v>
+        <v>4.02</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s" s="1">
         <v>18</v>
+      </c>
+      <c r="F9" t="n" s="1">
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +627,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s" s="1">
         <v>7</v>
@@ -633,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>3.26</v>
+        <v>2.79</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>7</v>
@@ -653,7 +656,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="n" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +667,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>1.68</v>
+        <v>2.93</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>7</v>
@@ -673,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="F12" t="n" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>3.65</v>
+        <v>3.24</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>7</v>
@@ -693,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="n" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -704,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="n" s="1">
-        <v>2.52</v>
+        <v>3.94</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>11</v>
@@ -713,7 +716,7 @@
         <v>28</v>
       </c>
       <c r="F14" t="n" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
@@ -724,7 +727,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="n" s="1">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s" s="1">
         <v>11</v>
@@ -733,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="F15" t="n" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -744,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>2.56</v>
+        <v>3.0</v>
       </c>
       <c r="D16" t="s" s="1">
         <v>11</v>
@@ -753,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="n" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -764,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>3.65</v>
+        <v>1.84</v>
       </c>
       <c r="D17" t="s" s="1">
         <v>11</v>
@@ -773,7 +776,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="n" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -784,7 +787,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="D18" t="s" s="1">
         <v>11</v>
@@ -793,18 +796,18 @@
         <v>36</v>
       </c>
       <c r="F18" t="n" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>874768.0</v>
+        <v>119242.0</v>
       </c>
       <c r="B19" t="s" s="1">
         <v>37</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>1.12</v>
+        <v>3.63</v>
       </c>
       <c r="D19" t="s" s="1">
         <v>7</v>
@@ -813,18 +816,18 @@
         <v>38</v>
       </c>
       <c r="F19" t="n" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>119242.0</v>
+        <v>166124.0</v>
       </c>
       <c r="B20" t="s" s="1">
         <v>39</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>2.76</v>
+        <v>4.18</v>
       </c>
       <c r="D20" t="s" s="1">
         <v>7</v>
@@ -833,18 +836,18 @@
         <v>40</v>
       </c>
       <c r="F20" t="n" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>349738.0</v>
+        <v>617853.0</v>
       </c>
       <c r="B21" t="s" s="1">
         <v>41</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>2.59</v>
+        <v>3.26</v>
       </c>
       <c r="D21" t="s" s="1">
         <v>7</v>
@@ -852,185 +855,185 @@
       <c r="E21" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F21" t="n" s="1">
-        <v>8.0</v>
+      <c r="F21" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>118163.0</v>
+        <v>386963.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>3.81</v>
+        <v>3.06</v>
       </c>
       <c r="D22" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>835241.0</v>
+        <v>913333.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>4.0</v>
+        <v>3.34</v>
       </c>
       <c r="D23" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E23" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>897379.0</v>
+        <v>149612.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>3.31</v>
+        <v>3.92</v>
       </c>
       <c r="D24" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" t="n" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="1">
-        <v>788344.0</v>
+        <v>999586.0</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>1.71</v>
+        <v>3.43</v>
       </c>
       <c r="D25" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E25" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" t="n" s="1">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>685773.0</v>
+        <v>658799.0</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>4.05</v>
+        <v>3.51</v>
       </c>
       <c r="D26" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>658799.0</v>
+        <v>882149.0</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="n" s="1">
-        <v>2.58</v>
+        <v>3.32</v>
       </c>
       <c r="D27" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E27" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="F27" t="n" s="1">
-        <v>4.0</v>
+        <v>55</v>
+      </c>
+      <c r="F27" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="1">
-        <v>297811.0</v>
+        <v>457269.0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="n" s="1">
-        <v>4.09</v>
+        <v>3.94</v>
       </c>
       <c r="D28" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>882149.0</v>
+        <v>414769.0</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="n" s="1">
-        <v>3.05</v>
+        <v>3.43</v>
       </c>
       <c r="D29" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E29" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" t="n" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>914795.0</v>
+        <v>477278.0</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="D30" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" t="n" s="1">
         <v>1.0</v>
@@ -1038,59 +1041,59 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>935788.0</v>
+        <v>799767.0</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n" s="1">
-        <v>3.03</v>
+        <v>2.59</v>
       </c>
       <c r="D31" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" t="n" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>999586.0</v>
+        <v>183879.0</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n" s="1">
-        <v>4.18</v>
+        <v>3.05</v>
       </c>
       <c r="D32" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" t="n" s="1">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="1">
-        <v>477278.0</v>
+        <v>945772.0</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n" s="1">
-        <v>3.43</v>
+        <v>3.08</v>
       </c>
       <c r="D33" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" t="n" s="1">
         <v>3.0</v>
@@ -1098,19 +1101,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>945772.0</v>
+        <v>496329.0</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n" s="1">
-        <v>3.58</v>
+        <v>2.55</v>
       </c>
       <c r="D34" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E34" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" t="n" s="1">
         <v>7.0</v>
@@ -1118,259 +1121,259 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>183879.0</v>
+        <v>123448.0</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="n" s="1">
-        <v>1.66</v>
+        <v>3.03</v>
       </c>
       <c r="D35" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" t="n" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="1">
-        <v>799767.0</v>
+        <v>171972.0</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="n" s="1">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="D36" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E36" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="F36" t="n" s="1">
-        <v>6.0</v>
+        <v>73</v>
+      </c>
+      <c r="F36" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>123448.0</v>
+        <v>187482.0</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="n" s="1">
-        <v>2.51</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="n" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>496329.0</v>
+        <v>667438.0</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" t="n" s="1">
-        <v>2.99</v>
+        <v>3.43</v>
       </c>
       <c r="D38" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" t="n" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="1">
-        <v>187482.0</v>
+        <v>413454.0</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" t="n" s="1">
-        <v>3.37</v>
+        <v>3.02</v>
       </c>
       <c r="D39" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="n" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>171972.0</v>
+        <v>989793.0</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="n" s="1">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" t="n" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>217153.0</v>
+        <v>376337.0</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="n" s="1">
-        <v>3.87</v>
+        <v>4.06</v>
       </c>
       <c r="D41" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E41" t="s" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" t="n" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="1">
-        <v>413454.0</v>
+        <v>758584.0</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" t="n" s="1">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="D42" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E42" t="s" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" t="n" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="1">
-        <v>989793.0</v>
+        <v>955281.0</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="n" s="1">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="D43" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E43" t="s" s="1">
-        <v>86</v>
-      </c>
-      <c r="F43" t="n" s="1">
-        <v>6.0</v>
+        <v>87</v>
+      </c>
+      <c r="F43" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>419876.0</v>
+        <v>329994.0</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" t="n" s="1">
-        <v>3.45</v>
+        <v>4.06</v>
       </c>
       <c r="D44" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E44" t="s" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" t="n" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="1">
-        <v>955281.0</v>
+        <v>349738.0</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" t="n" s="1">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="D45" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s" s="1">
-        <v>90</v>
-      </c>
-      <c r="F45" t="n" s="1">
-        <v>9.0</v>
+        <v>91</v>
+      </c>
+      <c r="F45" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="1">
-        <v>758584.0</v>
+        <v>419876.0</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" t="n" s="1">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="D46" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E46" t="s" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" t="n" s="1">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="1">
-        <v>414769.0</v>
+        <v>253571.0</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" t="n" s="1">
-        <v>2.91</v>
+        <v>2.78</v>
       </c>
       <c r="D47" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E47" t="s" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" t="n" s="1">
         <v>1.0</v>
@@ -1378,19 +1381,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>457269.0</v>
+        <v>118163.0</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" t="n" s="1">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="D48" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E48" t="s" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" t="n" s="1">
         <v>6.0</v>
@@ -1398,62 +1401,62 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="1">
-        <v>376337.0</v>
+        <v>685773.0</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" t="n" s="1">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
       <c r="D49" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" t="n" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="1">
-        <v>329994.0</v>
+        <v>935788.0</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" t="n" s="1">
-        <v>3.0</v>
+        <v>3.39</v>
       </c>
       <c r="D50" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F50" t="n" s="1">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>461296.0</v>
+        <v>421587.0</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" t="n" s="1">
-        <v>1.67</v>
+        <v>3.06</v>
       </c>
       <c r="D51" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="F51" t="n" s="1">
-        <v>5.0</v>
+        <v>103</v>
+      </c>
+      <c r="F51" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="52">
@@ -1461,56 +1464,56 @@
         <v>638336.0</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" t="n" s="1">
-        <v>2.81</v>
+        <v>3.59</v>
       </c>
       <c r="D52" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E52" t="s" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F52" t="n" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="1">
-        <v>667438.0</v>
+        <v>835241.0</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" t="n" s="1">
-        <v>3.28</v>
+        <v>2.92</v>
       </c>
       <c r="D53" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F53" t="n" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>421587.0</v>
+        <v>217153.0</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" t="n" s="1">
-        <v>3.48</v>
+        <v>2.93</v>
       </c>
       <c r="D54" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" t="n" s="1">
         <v>8.0</v>
@@ -1518,142 +1521,142 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>166124.0</v>
+        <v>297811.0</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" t="n" s="1">
-        <v>2.51</v>
+        <v>3.22</v>
       </c>
       <c r="D55" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E55" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="F55" t="n" s="1">
-        <v>7.0</v>
+        <v>111</v>
+      </c>
+      <c r="F55" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="1">
-        <v>617853.0</v>
+        <v>897379.0</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" t="n" s="1">
-        <v>2.83</v>
+        <v>3.55</v>
       </c>
       <c r="D56" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E56" t="s" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F56" t="n" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="1">
-        <v>913333.0</v>
+        <v>874768.0</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" t="n" s="1">
-        <v>3.61</v>
+        <v>3.01</v>
       </c>
       <c r="D57" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E57" t="s" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F57" t="n" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="1">
-        <v>386963.0</v>
+        <v>914795.0</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n" s="1">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="D58" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E58" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="F58" t="n" s="1">
-        <v>5.0</v>
+        <v>117</v>
+      </c>
+      <c r="F58" t="s" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="1">
-        <v>253571.0</v>
+        <v>788344.0</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" t="n" s="1">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="D59" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E59" t="s" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F59" t="n" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="1">
-        <v>149612.0</v>
+        <v>548266.0</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" t="n" s="1">
-        <v>3.69</v>
+        <v>2.66</v>
       </c>
       <c r="D60" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" t="n" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="1">
-        <v>548266.0</v>
+        <v>461296.0</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" t="n" s="1">
-        <v>2.71</v>
+        <v>3.49</v>
       </c>
       <c r="D61" t="s" s="1">
         <v>11</v>
       </c>
       <c r="E61" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F61" t="n" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Sample Solutions(60).xlsx
+++ b/Sample Solutions(60).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
   <si>
     <t>Student Number</t>
   </si>
@@ -38,21 +38,33 @@
     <t>CS</t>
   </si>
   <si>
+    <t>Abstract views on starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dale Maher</t>
+  </si>
+  <si>
     <t>Self Specified</t>
   </si>
   <si>
-    <t>Dale Maher</t>
-  </si>
-  <si>
     <t>Pauric O'Sullivan</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
+    <t>making action movies</t>
+  </si>
+  <si>
     <t>Ferdia Wilson</t>
   </si>
   <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
     <t>Cairan Power</t>
   </si>
   <si>
@@ -122,262 +134,262 @@
     <t>tracking down terrorists</t>
   </si>
   <si>
+    <t>Tiarnan O'Keeffe</t>
+  </si>
+  <si>
+    <t>writing political tracts</t>
+  </si>
+  <si>
+    <t>James Scott</t>
+  </si>
+  <si>
+    <t>Self Specified Project</t>
+  </si>
+  <si>
+    <t>Dara Flanagan</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>Stephen Kenny</t>
+  </si>
+  <si>
+    <t>Abstract views on playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Griffin Moran</t>
+  </si>
+  <si>
+    <t>Abstract views on ruling over subjects</t>
+  </si>
+  <si>
+    <t>Fiachra O'Callaghan</t>
+  </si>
+  <si>
+    <t>promoting liberalism</t>
+  </si>
+  <si>
+    <t>Eugene Brennan</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Dane Johnston</t>
+  </si>
+  <si>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>Conrad O'Keeffe</t>
+  </si>
+  <si>
+    <t>launching cultural revolutions</t>
+  </si>
+  <si>
+    <t>Corrie MacMahon</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Maurice Campbell</t>
+  </si>
+  <si>
+    <t>Abstract views on writing pop songs</t>
+  </si>
+  <si>
+    <t>Padraic McLoughlin</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Kyle O'Donnell</t>
+  </si>
+  <si>
+    <t>Abstract views on writing modern fiction</t>
+  </si>
+  <si>
+    <t>Graeme Foley</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>Fergal Flynn</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>Emanuel Foley</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Omar Hayes</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Donnchadh Collins</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>Fionnan Griffin</t>
+  </si>
+  <si>
+    <t>Abstract views on squandering money</t>
+  </si>
+  <si>
+    <t>Cillin MacNamara</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>Cairan Scott</t>
+  </si>
+  <si>
+    <t>writing polemics</t>
+  </si>
+  <si>
+    <t>Derry Scott</t>
+  </si>
+  <si>
+    <t>enjoying money</t>
+  </si>
+  <si>
+    <t>Darryl Fitzpatrick</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Reece Hogan</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Lucas Gallagher</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Billy Barry</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>Eamonn Clarke</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>Charlie Johnston</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Colum Molony</t>
+  </si>
+  <si>
+    <t>Abstract views on playing basketball</t>
+  </si>
+  <si>
+    <t>Mitchell Hogan</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>Kilian Reid</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Jonathon Hogan</t>
+  </si>
+  <si>
+    <t>transcending physical limits</t>
+  </si>
+  <si>
+    <t>Kristian Brown</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Timmy Lyons</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
     <t>Harold Magee</t>
   </si>
   <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>Colman White</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>Clayton Kelly</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>Garreth Keane</t>
+  </si>
+  <si>
+    <t>Abstract views on talking in riddles</t>
+  </si>
+  <si>
+    <t>Reuben MacDonald</t>
+  </si>
+  <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Tiarnan O'Keeffe</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Garreth Keane</t>
-  </si>
-  <si>
-    <t>writing political tracts</t>
-  </si>
-  <si>
-    <t>Dara Flanagan</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Clayton Kelly</t>
-  </si>
-  <si>
-    <t>Abstract views on playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Kristian Brown</t>
-  </si>
-  <si>
-    <t>transcending physical limits</t>
-  </si>
-  <si>
-    <t>Griffin Moran</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
     <t>Liam Maguire</t>
   </si>
   <si>
+    <t>chain-smoking Gauloises Bleues</t>
+  </si>
+  <si>
+    <t>Shay O'Neill</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>George Moore</t>
+  </si>
+  <si>
+    <t>Abstract views on playing ice hockey</t>
+  </si>
+  <si>
+    <t>Jim MacKenna</t>
+  </si>
+  <si>
     <t>playing ice hockey</t>
-  </si>
-  <si>
-    <t>George Moore</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>Jim MacKenna</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Fiachra O'Callaghan</t>
-  </si>
-  <si>
-    <t>promoting liberalism</t>
-  </si>
-  <si>
-    <t>Eugene Brennan</t>
-  </si>
-  <si>
-    <t>Abstract views on ruling over subjects</t>
-  </si>
-  <si>
-    <t>Conrad O'Keeffe</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Dane Johnston</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Corrie MacMahon</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Maurice Campbell</t>
-  </si>
-  <si>
-    <t>squandering money</t>
-  </si>
-  <si>
-    <t>Charlie Johnston</t>
-  </si>
-  <si>
-    <t>Abstract views on writing pop songs</t>
-  </si>
-  <si>
-    <t>Kyle O'Donnell</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Fergal Flynn</t>
-  </si>
-  <si>
-    <t>smoking Boyard cigarettes</t>
-  </si>
-  <si>
-    <t>Emanuel Foley</t>
-  </si>
-  <si>
-    <t>chain-smoking Gauloises Bleues</t>
-  </si>
-  <si>
-    <t>Omar Hayes</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Donnchadh Collins</t>
-  </si>
-  <si>
-    <t>going on commando missions</t>
-  </si>
-  <si>
-    <t>Cillin MacNamara</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Fionnan Griffin</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>Mitchell Hogan</t>
-  </si>
-  <si>
-    <t>writing polemics</t>
-  </si>
-  <si>
-    <t>Derry Scott</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Kilian Reid</t>
-  </si>
-  <si>
-    <t>chasing terrorists</t>
-  </si>
-  <si>
-    <t>Lucas Gallagher</t>
-  </si>
-  <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>Eamonn Clarke</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>Reece Hogan</t>
-  </si>
-  <si>
-    <t>eluding the CIA</t>
-  </si>
-  <si>
-    <t>Colum Molony</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Jonathon Hogan</t>
-  </si>
-  <si>
-    <t>launching cultural revolutions</t>
-  </si>
-  <si>
-    <t>Timmy Lyons</t>
-  </si>
-  <si>
-    <t>Abstract views on talking in riddles</t>
-  </si>
-  <si>
-    <t>Colman White</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting conservative values</t>
-  </si>
-  <si>
-    <t>Stephen Kenny</t>
-  </si>
-  <si>
-    <t>Self Specified Project</t>
-  </si>
-  <si>
-    <t>Shay O'Neill</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>James Scott</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Cairan Scott</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>Reuben MacDonald</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>Padraic McLoughlin</t>
-  </si>
-  <si>
-    <t>Abstract views on playing ice hockey</t>
-  </si>
-  <si>
-    <t>Darryl Fitzpatrick</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>Graeme Foley</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Billy Barry</t>
-  </si>
-  <si>
-    <t>Abstract views on squandering money</t>
   </si>
 </sst>
 </file>
@@ -461,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>7</v>
@@ -469,8 +481,8 @@
       <c r="E2" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="F2" t="n" s="1">
-        <v>1.0</v>
+      <c r="F2" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -478,19 +490,19 @@
         <v>978995.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="D3" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="F3" t="n" s="1">
-        <v>2.0</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -498,19 +510,19 @@
         <v>947775.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>2.8</v>
+        <v>4.08</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n" s="1">
-        <v>6.0</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -518,19 +530,19 @@
         <v>244747.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>3.06</v>
+        <v>3.56</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n" s="1">
-        <v>3.0</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -538,19 +550,19 @@
         <v>384765.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>3.86</v>
+        <v>3.28</v>
       </c>
       <c r="D6" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="E6" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="F6" t="n" s="1">
-        <v>7.0</v>
+      <c r="F6" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -558,19 +570,19 @@
         <v>515674.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="D7" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="E7" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n" s="1">
-        <v>9.0</v>
+      <c r="F7" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -578,19 +590,19 @@
         <v>969918.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>2.66</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="1">
-        <v>8</v>
-      </c>
       <c r="F8" t="n" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -598,19 +610,19 @@
         <v>154232.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>4.11</v>
+        <v>1.97</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="F9" t="n" s="1">
-        <v>3.0</v>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -618,19 +630,19 @@
         <v>276645.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>3.52</v>
+        <v>4.12</v>
       </c>
       <c r="D10" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F10" t="n" s="1">
-        <v>8.0</v>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -638,19 +650,19 @@
         <v>328122.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>3.29</v>
+        <v>2.71</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="F11" t="n" s="1">
-        <v>7.0</v>
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -658,19 +670,19 @@
         <v>411364.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>2.56</v>
+        <v>3.48</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="F12" t="n" s="1">
-        <v>7.0</v>
+        <v>27</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -678,19 +690,19 @@
         <v>449949.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>2.65</v>
+        <v>3.21</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="F13" t="n" s="1">
-        <v>4.0</v>
+        <v>29</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -698,19 +710,19 @@
         <v>596113.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n" s="1">
-        <v>4.16</v>
+        <v>4.05</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="F14" t="n" s="1">
-        <v>5.0</v>
+        <v>31</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -718,19 +730,19 @@
         <v>832113.0</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n" s="1">
-        <v>3.44</v>
+        <v>1.86</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="F15" t="n" s="1">
-        <v>3.0</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -738,19 +750,19 @@
         <v>714642.0</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="F16" t="n" s="1">
-        <v>6.0</v>
+        <v>35</v>
+      </c>
+      <c r="F16" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -758,19 +770,19 @@
         <v>812275.0</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="F17" t="n" s="1">
-        <v>3.0</v>
+        <v>37</v>
+      </c>
+      <c r="F17" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -778,639 +790,639 @@
         <v>163741.0</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>4.09</v>
+        <v>3.58</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="F18" t="n" s="1">
-        <v>6.0</v>
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>119242.0</v>
+        <v>874768.0</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>3.56</v>
+        <v>4.07</v>
       </c>
       <c r="D19" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E19" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="F19" t="n" s="1">
-        <v>2.0</v>
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>874768.0</v>
+        <v>617853.0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>2.8</v>
+        <v>2.39</v>
       </c>
       <c r="D20" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="F20" t="n" s="1">
-        <v>3.0</v>
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>166124.0</v>
+        <v>913333.0</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>3.87</v>
+        <v>3.34</v>
       </c>
       <c r="D21" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="F21" t="n" s="1">
-        <v>5.0</v>
+        <v>45</v>
+      </c>
+      <c r="F21" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>913333.0</v>
+        <v>835241.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>3.06</v>
+        <v>3.28</v>
       </c>
       <c r="D22" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="F22" t="n" s="1">
-        <v>7.0</v>
+        <v>47</v>
+      </c>
+      <c r="F22" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>386963.0</v>
+        <v>685773.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>3.01</v>
+        <v>3.87</v>
       </c>
       <c r="D23" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E23" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="F23" t="n" s="1">
-        <v>2.0</v>
+        <v>49</v>
+      </c>
+      <c r="F23" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>118163.0</v>
+        <v>897379.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>3.26</v>
+        <v>4.19</v>
       </c>
       <c r="D24" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="F24" t="n" s="1">
-        <v>2.0</v>
+        <v>51</v>
+      </c>
+      <c r="F24" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="1">
-        <v>685773.0</v>
+        <v>658799.0</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>4.06</v>
+        <v>1.88</v>
       </c>
       <c r="D25" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E25" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="F25" t="n" s="1">
-        <v>7.0</v>
+        <v>53</v>
+      </c>
+      <c r="F25" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>253571.0</v>
+        <v>882149.0</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="D26" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="F26" t="n" s="1">
-        <v>1.0</v>
+        <v>55</v>
+      </c>
+      <c r="F26" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>149612.0</v>
+        <v>999586.0</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n" s="1">
-        <v>3.94</v>
+        <v>3.81</v>
       </c>
       <c r="D27" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E27" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="F27" t="n" s="1">
-        <v>4.0</v>
+        <v>57</v>
+      </c>
+      <c r="F27" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="1">
-        <v>788344.0</v>
+        <v>914795.0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n" s="1">
-        <v>1.06</v>
+        <v>3.94</v>
       </c>
       <c r="D28" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F28" t="n" s="1">
-        <v>8.0</v>
+        <v>59</v>
+      </c>
+      <c r="F28" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>897379.0</v>
+        <v>477278.0</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n" s="1">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="F29" t="n" s="1">
-        <v>9.0</v>
+        <v>61</v>
+      </c>
+      <c r="F29" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>658799.0</v>
+        <v>799767.0</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>2.66</v>
+        <v>3.99</v>
       </c>
       <c r="D30" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="F30" t="n" s="1">
-        <v>5.0</v>
+        <v>63</v>
+      </c>
+      <c r="F30" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>999586.0</v>
+        <v>945772.0</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n" s="1">
-        <v>3.55</v>
+        <v>4.02</v>
       </c>
       <c r="D31" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="F31" t="n" s="1">
-        <v>9.0</v>
+        <v>65</v>
+      </c>
+      <c r="F31" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>882149.0</v>
+        <v>123448.0</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" t="n" s="1">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="D32" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="F32" t="n" s="1">
-        <v>8.0</v>
+        <v>67</v>
+      </c>
+      <c r="F32" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="1">
-        <v>914795.0</v>
+        <v>496329.0</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n" s="1">
-        <v>4.16</v>
+        <v>2.92</v>
       </c>
       <c r="D33" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="F33" t="n" s="1">
-        <v>8.0</v>
+        <v>69</v>
+      </c>
+      <c r="F33" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>477278.0</v>
+        <v>187482.0</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n" s="1">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="D34" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="F34" t="n" s="1">
-        <v>1.0</v>
+        <v>71</v>
+      </c>
+      <c r="F34" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>414769.0</v>
+        <v>171972.0</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C35" t="n" s="1">
-        <v>3.96</v>
+        <v>4.11</v>
       </c>
       <c r="D35" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E35" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="F35" t="n" s="1">
-        <v>6.0</v>
+        <v>73</v>
+      </c>
+      <c r="F35" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="1">
-        <v>945772.0</v>
+        <v>548266.0</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C36" t="n" s="1">
         <v>3.52</v>
       </c>
       <c r="D36" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="F36" t="n" s="1">
-        <v>4.0</v>
+        <v>75</v>
+      </c>
+      <c r="F36" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>496329.0</v>
+        <v>667438.0</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C37" t="n" s="1">
-        <v>3.52</v>
+        <v>2.84</v>
       </c>
       <c r="D37" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="F37" t="n" s="1">
-        <v>5.0</v>
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>187482.0</v>
+        <v>217153.0</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" t="n" s="1">
-        <v>3.34</v>
+        <v>4.02</v>
       </c>
       <c r="D38" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="F38" t="n" s="1">
-        <v>7.0</v>
+        <v>79</v>
+      </c>
+      <c r="F38" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="1">
-        <v>171972.0</v>
+        <v>989793.0</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C39" t="n" s="1">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="D39" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="F39" t="n" s="1">
-        <v>2.0</v>
+        <v>81</v>
+      </c>
+      <c r="F39" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>548266.0</v>
+        <v>376337.0</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C40" t="n" s="1">
-        <v>3.04</v>
+        <v>3.43</v>
       </c>
       <c r="D40" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="F40" t="n" s="1">
-        <v>1.0</v>
+        <v>83</v>
+      </c>
+      <c r="F40" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>217153.0</v>
+        <v>638336.0</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C41" t="n" s="1">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="D41" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="F41" t="n" s="1">
-        <v>5.0</v>
+        <v>85</v>
+      </c>
+      <c r="F41" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="1">
-        <v>667438.0</v>
+        <v>758584.0</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n" s="1">
-        <v>4.17</v>
+        <v>3.45</v>
       </c>
       <c r="D42" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s" s="1">
-        <v>83</v>
-      </c>
-      <c r="F42" t="n" s="1">
-        <v>7.0</v>
+        <v>87</v>
+      </c>
+      <c r="F42" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="1">
-        <v>413454.0</v>
+        <v>461296.0</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C43" t="n" s="1">
-        <v>2.99</v>
+        <v>3.62</v>
       </c>
       <c r="D43" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s" s="1">
-        <v>85</v>
-      </c>
-      <c r="F43" t="n" s="1">
-        <v>5.0</v>
+        <v>89</v>
+      </c>
+      <c r="F43" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>376337.0</v>
+        <v>955281.0</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C44" t="n" s="1">
-        <v>2.63</v>
+        <v>4.09</v>
       </c>
       <c r="D44" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="F44" t="n" s="1">
-        <v>4.0</v>
+        <v>91</v>
+      </c>
+      <c r="F44" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="1">
-        <v>419876.0</v>
+        <v>329994.0</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C45" t="n" s="1">
-        <v>3.57</v>
+        <v>4.16</v>
       </c>
       <c r="D45" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s" s="1">
-        <v>89</v>
-      </c>
-      <c r="F45" t="n" s="1">
-        <v>1.0</v>
+        <v>93</v>
+      </c>
+      <c r="F45" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="1">
-        <v>461296.0</v>
+        <v>414769.0</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C46" t="n" s="1">
-        <v>3.27</v>
+        <v>1.89</v>
       </c>
       <c r="D46" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s" s="1">
-        <v>91</v>
-      </c>
-      <c r="F46" t="n" s="1">
-        <v>5.0</v>
+        <v>95</v>
+      </c>
+      <c r="F46" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="1">
-        <v>329994.0</v>
+        <v>349738.0</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C47" t="n" s="1">
-        <v>4.06</v>
+        <v>2.71</v>
       </c>
       <c r="D47" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s" s="1">
-        <v>93</v>
-      </c>
-      <c r="F47" t="n" s="1">
-        <v>9.0</v>
+        <v>97</v>
+      </c>
+      <c r="F47" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>758584.0</v>
+        <v>413454.0</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C48" t="n" s="1">
-        <v>4.18</v>
+        <v>2.89</v>
       </c>
       <c r="D48" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s" s="1">
-        <v>95</v>
-      </c>
-      <c r="F48" t="n" s="1">
-        <v>9.0</v>
+        <v>99</v>
+      </c>
+      <c r="F48" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="1">
-        <v>349738.0</v>
+        <v>419876.0</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C49" t="n" s="1">
-        <v>3.64</v>
+        <v>2.53</v>
       </c>
       <c r="D49" t="s" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s" s="1">
-        <v>97</v>
-      </c>
-      <c r="F49" t="n" s="1">
-        <v>7.0</v>
+        <v>101</v>
+      </c>
+      <c r="F49" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1418,139 +1430,139 @@
         <v>457269.0</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C50" t="n" s="1">
-        <v>4.01</v>
+        <v>3.34</v>
       </c>
       <c r="D50" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E50" t="s" s="1">
-        <v>99</v>
-      </c>
-      <c r="F50" t="n" s="1">
-        <v>5.0</v>
+        <v>103</v>
+      </c>
+      <c r="F50" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>421587.0</v>
+        <v>118163.0</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C51" t="n" s="1">
-        <v>3.98</v>
+        <v>3.42</v>
       </c>
       <c r="D51" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E51" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="F51" t="n" s="1">
-        <v>6.0</v>
+        <v>105</v>
+      </c>
+      <c r="F51" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="1">
-        <v>935788.0</v>
+        <v>421587.0</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C52" t="n" s="1">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="D52" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E52" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="F52" t="n" s="1">
-        <v>3.0</v>
+        <v>107</v>
+      </c>
+      <c r="F52" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="1">
-        <v>835241.0</v>
+        <v>119242.0</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C53" t="n" s="1">
-        <v>3.99</v>
+        <v>2.7</v>
       </c>
       <c r="D53" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E53" t="s" s="1">
-        <v>105</v>
-      </c>
-      <c r="F53" t="n" s="1">
-        <v>6.0</v>
+        <v>109</v>
+      </c>
+      <c r="F53" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>183879.0</v>
+        <v>935788.0</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C54" t="n" s="1">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="D54" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E54" t="s" s="1">
-        <v>107</v>
-      </c>
-      <c r="F54" t="n" s="1">
-        <v>2.0</v>
+        <v>111</v>
+      </c>
+      <c r="F54" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>617853.0</v>
+        <v>386963.0</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C55" t="n" s="1">
-        <v>3.48</v>
+        <v>3.39</v>
       </c>
       <c r="D55" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E55" t="s" s="1">
-        <v>109</v>
-      </c>
-      <c r="F55" t="n" s="1">
-        <v>9.0</v>
+        <v>113</v>
+      </c>
+      <c r="F55" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="1">
-        <v>989793.0</v>
+        <v>166124.0</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C56" t="n" s="1">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="D56" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="F56" t="n" s="1">
-        <v>4.0</v>
+        <v>115</v>
+      </c>
+      <c r="F56" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1558,99 +1570,99 @@
         <v>297811.0</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n" s="1">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="D57" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E57" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="F57" t="n" s="1">
-        <v>9.0</v>
+        <v>117</v>
+      </c>
+      <c r="F57" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="1">
-        <v>799767.0</v>
+        <v>253571.0</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C58" t="n" s="1">
-        <v>2.69</v>
+        <v>3.61</v>
       </c>
       <c r="D58" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E58" t="s" s="1">
-        <v>115</v>
-      </c>
-      <c r="F58" t="n" s="1">
-        <v>1.0</v>
+        <v>119</v>
+      </c>
+      <c r="F58" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="1">
-        <v>638336.0</v>
+        <v>183879.0</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C59" t="n" s="1">
-        <v>3.47</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="F59" t="n" s="1">
-        <v>5.0</v>
+        <v>121</v>
+      </c>
+      <c r="F59" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="1">
-        <v>123448.0</v>
+        <v>149612.0</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C60" t="n" s="1">
-        <v>3.47</v>
+        <v>3.99</v>
       </c>
       <c r="D60" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="F60" t="n" s="1">
-        <v>3.0</v>
+        <v>123</v>
+      </c>
+      <c r="F60" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="1">
-        <v>955281.0</v>
+        <v>788344.0</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C61" t="n" s="1">
-        <v>2.8</v>
+        <v>3.41</v>
       </c>
       <c r="D61" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="F61" t="n" s="1">
-        <v>6.0</v>
+        <v>125</v>
+      </c>
+      <c r="F61" t="s" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
